--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0645424412382183</v>
+        <v>-0.08312210549351147</v>
       </c>
       <c r="C2">
-        <v>0.6690877400990888</v>
+        <v>0.6473643844303238</v>
       </c>
       <c r="D2">
-        <v>0.6946159048421087</v>
+        <v>0.6561623056018049</v>
       </c>
       <c r="E2">
-        <v>0.8334362032226034</v>
+        <v>0.8100384593349904</v>
       </c>
       <c r="F2">
-        <v>0.8623002552964268</v>
+        <v>0.8340433064168259</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04348629788156637</v>
+        <v>-0.01572770659491909</v>
       </c>
       <c r="C3">
-        <v>0.4521970394332903</v>
+        <v>0.4445496780545906</v>
       </c>
       <c r="D3">
-        <v>0.3854931715262907</v>
+        <v>0.3664663352916562</v>
       </c>
       <c r="E3">
-        <v>0.6208809640553419</v>
+        <v>0.6053646300302457</v>
       </c>
       <c r="F3">
-        <v>0.6446463807453537</v>
+        <v>0.6280045102432898</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05290767105346884</v>
+        <v>-0.06939138655364743</v>
       </c>
       <c r="C4">
-        <v>0.6225749216334283</v>
+        <v>0.5952380793966869</v>
       </c>
       <c r="D4">
-        <v>0.6939311801936435</v>
+        <v>0.6460436807749044</v>
       </c>
       <c r="E4">
-        <v>0.8330253178587332</v>
+        <v>0.803768424843191</v>
       </c>
       <c r="F4">
-        <v>0.8683099311802156</v>
+        <v>0.8334651917952676</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0639513349390992</v>
+        <v>0.06184427096005268</v>
       </c>
       <c r="C5">
-        <v>0.3641224492909254</v>
+        <v>0.33700112578256</v>
       </c>
       <c r="D5">
-        <v>0.2283199213582898</v>
+        <v>0.209417853196624</v>
       </c>
       <c r="E5">
-        <v>0.4778283387978258</v>
+        <v>0.4576219544521701</v>
       </c>
       <c r="F5">
-        <v>0.4966418859999392</v>
+        <v>0.4735857100263252</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0614559094452153</v>
+        <v>-0.06798794410060216</v>
       </c>
       <c r="C6">
-        <v>0.5331645344753635</v>
+        <v>0.4968139668552824</v>
       </c>
       <c r="D6">
-        <v>0.413716711841816</v>
+        <v>0.377721656252307</v>
       </c>
       <c r="E6">
-        <v>0.6432081403727848</v>
+        <v>0.6145906412013666</v>
       </c>
       <c r="F6">
-        <v>0.6748990731427736</v>
+        <v>0.640631895303542</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002487982899583753</v>
+        <v>0.01694414359772521</v>
       </c>
       <c r="C7">
-        <v>0.2733671899803338</v>
+        <v>0.2607354299704002</v>
       </c>
       <c r="D7">
-        <v>0.115476561649763</v>
+        <v>0.1060912636732037</v>
       </c>
       <c r="E7">
-        <v>0.3398184245295758</v>
+        <v>0.3257165388389169</v>
       </c>
       <c r="F7">
-        <v>0.3604222080279061</v>
+        <v>0.3428704965612517</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02391660184336641</v>
+        <v>-0.06054918682133375</v>
       </c>
       <c r="C8">
-        <v>0.3304680082435839</v>
+        <v>0.3330393258437492</v>
       </c>
       <c r="D8">
-        <v>0.1597844461061402</v>
+        <v>0.1559239451819853</v>
       </c>
       <c r="E8">
-        <v>0.3997304668225081</v>
+        <v>0.3948720617896198</v>
       </c>
       <c r="F8">
-        <v>0.426564270504834</v>
+        <v>0.4138719111052573</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.00841920931751867</v>
+        <v>-0.01715367655228583</v>
       </c>
       <c r="C9">
-        <v>0.3144933139113131</v>
+        <v>0.2997021343775136</v>
       </c>
       <c r="D9">
-        <v>0.1888942883507016</v>
+        <v>0.1700925356682539</v>
       </c>
       <c r="E9">
-        <v>0.434619705433039</v>
+        <v>0.4124227632760514</v>
       </c>
       <c r="F9">
-        <v>0.4693548474335428</v>
+        <v>0.4405169522264152</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05658939040518069</v>
+        <v>-0.05536040423422233</v>
       </c>
       <c r="C10">
-        <v>0.5357910427291362</v>
+        <v>0.4661046776547557</v>
       </c>
       <c r="D10">
-        <v>0.3687922290894884</v>
+        <v>0.3164365824987914</v>
       </c>
       <c r="E10">
-        <v>0.6072826599611489</v>
+        <v>0.5625269615749909</v>
       </c>
       <c r="F10">
-        <v>0.6623502426810685</v>
+        <v>0.6046490245027418</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.05673748566820783</v>
+        <v>-0.0196809274911882</v>
       </c>
       <c r="C11">
-        <v>0.301843360831839</v>
+        <v>0.3184982995745606</v>
       </c>
       <c r="D11">
-        <v>0.1059025615323837</v>
+        <v>0.1151557242996088</v>
       </c>
       <c r="E11">
-        <v>0.3254267375806476</v>
+        <v>0.3393460244346599</v>
       </c>
       <c r="F11">
-        <v>0.3582656473422228</v>
+        <v>0.371109232533003</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.08312210549351147</v>
+        <v>-0.01572770659491909</v>
       </c>
       <c r="C2">
-        <v>0.6473643844303238</v>
+        <v>0.4445496780545906</v>
       </c>
       <c r="D2">
-        <v>0.6561623056018049</v>
+        <v>0.3664663352916562</v>
       </c>
       <c r="E2">
-        <v>0.8100384593349904</v>
+        <v>0.6053646300302457</v>
       </c>
       <c r="F2">
-        <v>0.8340433064168259</v>
+        <v>0.6280045102432898</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01572770659491909</v>
+        <v>-0.06939138655364743</v>
       </c>
       <c r="C3">
-        <v>0.4445496780545906</v>
+        <v>0.5952380793966869</v>
       </c>
       <c r="D3">
-        <v>0.3664663352916562</v>
+        <v>0.6460436807749044</v>
       </c>
       <c r="E3">
-        <v>0.6053646300302457</v>
+        <v>0.803768424843191</v>
       </c>
       <c r="F3">
-        <v>0.6280045102432898</v>
+        <v>0.8334651917952676</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06939138655364743</v>
+        <v>0.06184427096005268</v>
       </c>
       <c r="C4">
-        <v>0.5952380793966869</v>
+        <v>0.33700112578256</v>
       </c>
       <c r="D4">
-        <v>0.6460436807749044</v>
+        <v>0.209417853196624</v>
       </c>
       <c r="E4">
-        <v>0.803768424843191</v>
+        <v>0.4576219544521701</v>
       </c>
       <c r="F4">
-        <v>0.8334651917952676</v>
+        <v>0.4735857100263252</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06184427096005268</v>
+        <v>-0.06798794410060216</v>
       </c>
       <c r="C5">
-        <v>0.33700112578256</v>
+        <v>0.4968139668552824</v>
       </c>
       <c r="D5">
-        <v>0.209417853196624</v>
+        <v>0.377721656252307</v>
       </c>
       <c r="E5">
-        <v>0.4576219544521701</v>
+        <v>0.6145906412013666</v>
       </c>
       <c r="F5">
-        <v>0.4735857100263252</v>
+        <v>0.640631895303542</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06798794410060216</v>
+        <v>0.01694414359772521</v>
       </c>
       <c r="C6">
-        <v>0.4968139668552824</v>
+        <v>0.2607354299704002</v>
       </c>
       <c r="D6">
-        <v>0.377721656252307</v>
+        <v>0.1060912636732037</v>
       </c>
       <c r="E6">
-        <v>0.6145906412013666</v>
+        <v>0.3257165388389169</v>
       </c>
       <c r="F6">
-        <v>0.640631895303542</v>
+        <v>0.3428704965612517</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01694414359772521</v>
+        <v>-0.06054918682133375</v>
       </c>
       <c r="C7">
-        <v>0.2607354299704002</v>
+        <v>0.3330393258437492</v>
       </c>
       <c r="D7">
-        <v>0.1060912636732037</v>
+        <v>0.1559239451819853</v>
       </c>
       <c r="E7">
-        <v>0.3257165388389169</v>
+        <v>0.3948720617896198</v>
       </c>
       <c r="F7">
-        <v>0.3428704965612517</v>
+        <v>0.4138719111052573</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06054918682133375</v>
+        <v>-0.01715367655228583</v>
       </c>
       <c r="C8">
-        <v>0.3330393258437492</v>
+        <v>0.2997021343775136</v>
       </c>
       <c r="D8">
-        <v>0.1559239451819853</v>
+        <v>0.1700925356682539</v>
       </c>
       <c r="E8">
-        <v>0.3948720617896198</v>
+        <v>0.4124227632760514</v>
       </c>
       <c r="F8">
-        <v>0.4138719111052573</v>
+        <v>0.4405169522264152</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01715367655228583</v>
+        <v>-0.05536040423422233</v>
       </c>
       <c r="C9">
-        <v>0.2997021343775136</v>
+        <v>0.4661046776547557</v>
       </c>
       <c r="D9">
-        <v>0.1700925356682539</v>
+        <v>0.3164365824987914</v>
       </c>
       <c r="E9">
-        <v>0.4124227632760514</v>
+        <v>0.5625269615749909</v>
       </c>
       <c r="F9">
-        <v>0.4405169522264152</v>
+        <v>0.6046490245027418</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05536040423422233</v>
+        <v>-0.0196809274911882</v>
       </c>
       <c r="C10">
-        <v>0.4661046776547557</v>
+        <v>0.3184982995745606</v>
       </c>
       <c r="D10">
-        <v>0.3164365824987914</v>
+        <v>0.1151557242996088</v>
       </c>
       <c r="E10">
-        <v>0.5625269615749909</v>
+        <v>0.3393460244346599</v>
       </c>
       <c r="F10">
-        <v>0.6046490245027418</v>
+        <v>0.371109232533003</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0196809274911882</v>
+        <v>0.01522744611739815</v>
       </c>
       <c r="C11">
-        <v>0.3184982995745606</v>
+        <v>0.4477926050010403</v>
       </c>
       <c r="D11">
-        <v>0.1151557242996088</v>
+        <v>0.2261067416802728</v>
       </c>
       <c r="E11">
-        <v>0.3393460244346599</v>
+        <v>0.475506826113225</v>
       </c>
       <c r="F11">
-        <v>0.371109232533003</v>
+        <v>0.5313601257210295</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01572770659491909</v>
+        <v>-0.08312210549351147</v>
       </c>
       <c r="C2">
-        <v>0.4445496780545906</v>
+        <v>0.6473643844303238</v>
       </c>
       <c r="D2">
-        <v>0.3664663352916562</v>
+        <v>0.6561623056018049</v>
       </c>
       <c r="E2">
-        <v>0.6053646300302457</v>
+        <v>0.8100384593349904</v>
       </c>
       <c r="F2">
-        <v>0.6280045102432898</v>
+        <v>0.8340433064168259</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06939138655364743</v>
+        <v>-0.01572770659491909</v>
       </c>
       <c r="C3">
-        <v>0.5952380793966869</v>
+        <v>0.4445496780545906</v>
       </c>
       <c r="D3">
-        <v>0.6460436807749044</v>
+        <v>0.3664663352916562</v>
       </c>
       <c r="E3">
-        <v>0.803768424843191</v>
+        <v>0.6053646300302457</v>
       </c>
       <c r="F3">
-        <v>0.8334651917952676</v>
+        <v>0.6280045102432898</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06184427096005268</v>
+        <v>-0.06939138655364743</v>
       </c>
       <c r="C4">
-        <v>0.33700112578256</v>
+        <v>0.5952380793966869</v>
       </c>
       <c r="D4">
-        <v>0.209417853196624</v>
+        <v>0.6460436807749044</v>
       </c>
       <c r="E4">
-        <v>0.4576219544521701</v>
+        <v>0.803768424843191</v>
       </c>
       <c r="F4">
-        <v>0.4735857100263252</v>
+        <v>0.8334651917952676</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.06798794410060216</v>
+        <v>0.06184427096005268</v>
       </c>
       <c r="C5">
-        <v>0.4968139668552824</v>
+        <v>0.33700112578256</v>
       </c>
       <c r="D5">
-        <v>0.377721656252307</v>
+        <v>0.209417853196624</v>
       </c>
       <c r="E5">
-        <v>0.6145906412013666</v>
+        <v>0.4576219544521701</v>
       </c>
       <c r="F5">
-        <v>0.640631895303542</v>
+        <v>0.4735857100263252</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01694414359772521</v>
+        <v>-0.06798794410060216</v>
       </c>
       <c r="C6">
-        <v>0.2607354299704002</v>
+        <v>0.4968139668552824</v>
       </c>
       <c r="D6">
-        <v>0.1060912636732037</v>
+        <v>0.377721656252307</v>
       </c>
       <c r="E6">
-        <v>0.3257165388389169</v>
+        <v>0.6145906412013666</v>
       </c>
       <c r="F6">
-        <v>0.3428704965612517</v>
+        <v>0.640631895303542</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06054918682133375</v>
+        <v>0.01694414359772521</v>
       </c>
       <c r="C7">
-        <v>0.3330393258437492</v>
+        <v>0.2607354299704002</v>
       </c>
       <c r="D7">
-        <v>0.1559239451819853</v>
+        <v>0.1060912636732037</v>
       </c>
       <c r="E7">
-        <v>0.3948720617896198</v>
+        <v>0.3257165388389169</v>
       </c>
       <c r="F7">
-        <v>0.4138719111052573</v>
+        <v>0.3428704965612517</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01715367655228583</v>
+        <v>-0.06054918682133375</v>
       </c>
       <c r="C8">
-        <v>0.2997021343775136</v>
+        <v>0.3330393258437492</v>
       </c>
       <c r="D8">
-        <v>0.1700925356682539</v>
+        <v>0.1559239451819853</v>
       </c>
       <c r="E8">
-        <v>0.4124227632760514</v>
+        <v>0.3948720617896198</v>
       </c>
       <c r="F8">
-        <v>0.4405169522264152</v>
+        <v>0.4138719111052573</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05536040423422233</v>
+        <v>-0.01715367655228583</v>
       </c>
       <c r="C9">
-        <v>0.4661046776547557</v>
+        <v>0.2997021343775136</v>
       </c>
       <c r="D9">
-        <v>0.3164365824987914</v>
+        <v>0.1700925356682539</v>
       </c>
       <c r="E9">
-        <v>0.5625269615749909</v>
+        <v>0.4124227632760514</v>
       </c>
       <c r="F9">
-        <v>0.6046490245027418</v>
+        <v>0.4405169522264152</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0196809274911882</v>
+        <v>-0.05536040423422233</v>
       </c>
       <c r="C10">
-        <v>0.3184982995745606</v>
+        <v>0.4661046776547557</v>
       </c>
       <c r="D10">
-        <v>0.1151557242996088</v>
+        <v>0.3164365824987914</v>
       </c>
       <c r="E10">
-        <v>0.3393460244346599</v>
+        <v>0.5625269615749909</v>
       </c>
       <c r="F10">
-        <v>0.371109232533003</v>
+        <v>0.6046490245027418</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01522744611739815</v>
+        <v>-0.0196809274911882</v>
       </c>
       <c r="C11">
-        <v>0.4477926050010403</v>
+        <v>0.3184982995745606</v>
       </c>
       <c r="D11">
-        <v>0.2261067416802728</v>
+        <v>0.1151557242996088</v>
       </c>
       <c r="E11">
-        <v>0.475506826113225</v>
+        <v>0.3393460244346599</v>
       </c>
       <c r="F11">
-        <v>0.5313601257210295</v>
+        <v>0.371109232533003</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
